--- a/data/trans_bre/IP19C09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C09-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 0,0</t>
+          <t>-7,01; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 1,34</t>
+          <t>-10,66; 1,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,46</t>
+          <t>0,0; 15,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,39</t>
+          <t>-4,51; 0,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,85</t>
+          <t>-1,42; 2,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,7</t>
+          <t>-1,53; 2,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-87,7; 33,35</t>
+          <t>-89,61; 40,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,5; 525,86</t>
+          <t>-71,11; 490,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,66; 314,07</t>
+          <t>-62,59; 335,59</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 3,04</t>
+          <t>-4,32; 2,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,96</t>
+          <t>-3,59; 2,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 4,15</t>
+          <t>-6,8; 3,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-85,98; 263,25</t>
+          <t>-89,51; 190,25</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,21</t>
+          <t>-3,49; -0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,4</t>
+          <t>-1,99; 1,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,91</t>
+          <t>-1,93; 2,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,4; 20,37</t>
+          <t>-83,93; 12,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,82; 146,77</t>
+          <t>-74,93; 160,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,8; 131,47</t>
+          <t>-56,85; 149,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C09-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 0,0</t>
+          <t>-6,97; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 1,31</t>
+          <t>-12,87; 1,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,69</t>
+          <t>0,0; 11,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,35</t>
+          <t>-4,39; 0,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,57</t>
+          <t>-1,31; 2,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,69</t>
+          <t>-1,47; 3,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-89,61; 40,21</t>
+          <t>-88,2; 33,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,11; 490,21</t>
+          <t>-71,39; 362,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 335,59</t>
+          <t>-65,51; 423,21</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,96</t>
+          <t>-5,14; 3,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 2,72</t>
+          <t>-3,26; 2,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 3,59</t>
+          <t>-7,82; 3,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-89,51; 190,25</t>
+          <t>-88,38; 171,2</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; -0,0</t>
+          <t>-3,62; 0,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,53</t>
+          <t>-1,81; 1,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,24</t>
+          <t>-1,86; 2,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,93; 12,2</t>
+          <t>-83,86; 9,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,93; 160,95</t>
+          <t>-69,87; 181,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 149,87</t>
+          <t>-58,11; 132,93</t>
         </is>
       </c>
     </row>
